--- a/FLData.xlsx
+++ b/FLData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dtemp\BotML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273600B5-3FE3-4BEB-88A1-A979FC005C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5364E2B2-694D-4733-ADE4-9542329FF42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,13 +120,13 @@
     <t>Shakhtar</t>
   </si>
   <si>
-    <t>Tolouse</t>
-  </si>
-  <si>
     <t>Brugge</t>
   </si>
   <si>
     <t>Valencia</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
   </si>
 </sst>
 </file>
@@ -398,8 +398,8 @@
   </sheetPr>
   <dimension ref="A1:F275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="E220" sqref="E220"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="B236" sqref="B236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4846,7 +4846,7 @@
     </row>
     <row r="223" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>7</v>
@@ -4866,7 +4866,7 @@
     </row>
     <row r="224" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>9</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="225" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>9</v>
@@ -4906,7 +4906,7 @@
     </row>
     <row r="226" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>9</v>
@@ -4926,7 +4926,7 @@
     </row>
     <row r="227" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>9</v>
@@ -4946,7 +4946,7 @@
     </row>
     <row r="228" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>10</v>
@@ -4966,7 +4966,7 @@
     </row>
     <row r="229" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>10</v>
@@ -4986,7 +4986,7 @@
     </row>
     <row r="230" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>10</v>
@@ -5006,7 +5006,7 @@
     </row>
     <row r="231" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>11</v>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="232" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>11</v>
@@ -5046,7 +5046,7 @@
     </row>
     <row r="233" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>11</v>
@@ -5066,7 +5066,7 @@
     </row>
     <row r="234" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>7</v>
@@ -5086,7 +5086,7 @@
     </row>
     <row r="235" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>9</v>
@@ -5106,7 +5106,7 @@
     </row>
     <row r="236" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>9</v>
@@ -5126,7 +5126,7 @@
     </row>
     <row r="237" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>10</v>
@@ -5146,7 +5146,7 @@
     </row>
     <row r="238" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>10</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="239" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>11</v>
@@ -5186,7 +5186,7 @@
     </row>
     <row r="240" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>11</v>
@@ -5206,7 +5206,7 @@
     </row>
     <row r="241" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>7</v>
@@ -5226,7 +5226,7 @@
     </row>
     <row r="242" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>9</v>
@@ -5246,7 +5246,7 @@
     </row>
     <row r="243" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>9</v>
@@ -5266,7 +5266,7 @@
     </row>
     <row r="244" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>9</v>
@@ -5286,7 +5286,7 @@
     </row>
     <row r="245" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>9</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="246" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>10</v>
@@ -5326,7 +5326,7 @@
     </row>
     <row r="247" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>10</v>
@@ -5346,7 +5346,7 @@
     </row>
     <row r="248" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>11</v>
@@ -5366,7 +5366,7 @@
     </row>
     <row r="249" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>10</v>
@@ -5386,7 +5386,7 @@
     </row>
     <row r="250" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>11</v>
@@ -5406,7 +5406,7 @@
     </row>
     <row r="251" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>11</v>
@@ -5426,7 +5426,7 @@
     </row>
     <row r="252" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>7</v>
@@ -5446,7 +5446,7 @@
     </row>
     <row r="253" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>9</v>
@@ -5466,7 +5466,7 @@
     </row>
     <row r="254" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>9</v>
@@ -5486,7 +5486,7 @@
     </row>
     <row r="255" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>10</v>
@@ -5506,7 +5506,7 @@
     </row>
     <row r="256" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>10</v>
@@ -5526,7 +5526,7 @@
     </row>
     <row r="257" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>11</v>
@@ -5546,7 +5546,7 @@
     </row>
     <row r="258" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>7</v>
@@ -5566,7 +5566,7 @@
     </row>
     <row r="259" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>9</v>
@@ -5586,7 +5586,7 @@
     </row>
     <row r="260" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>9</v>
@@ -5606,7 +5606,7 @@
     </row>
     <row r="261" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>9</v>
@@ -5626,7 +5626,7 @@
     </row>
     <row r="262" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>9</v>
@@ -5646,7 +5646,7 @@
     </row>
     <row r="263" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>10</v>
@@ -5666,7 +5666,7 @@
     </row>
     <row r="264" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>10</v>
@@ -5686,7 +5686,7 @@
     </row>
     <row r="265" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>10</v>
@@ -5706,7 +5706,7 @@
     </row>
     <row r="266" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>10</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="267" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>10</v>
@@ -5746,7 +5746,7 @@
     </row>
     <row r="268" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>11</v>
@@ -5766,7 +5766,7 @@
     </row>
     <row r="269" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>11</v>
@@ -5786,7 +5786,7 @@
     </row>
     <row r="270" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>10</v>
@@ -5806,7 +5806,7 @@
     </row>
     <row r="271" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>10</v>
@@ -5826,7 +5826,7 @@
     </row>
     <row r="272" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>9</v>
@@ -5846,7 +5846,7 @@
     </row>
     <row r="273" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>9</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="274" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>9</v>
@@ -5886,7 +5886,7 @@
     </row>
     <row r="275" spans="1:6" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>7</v>
